--- a/porformance/zeagle.xlsx
+++ b/porformance/zeagle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roming vault\Log\life\jobs\南科大\传输现象助教\transport phenomena\problems and solutions\porformance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roming vault\Log\life\jobs\南科大\传输现象助教\transfer-TA\porformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="555" windowWidth="11820" windowHeight="7905" activeTab="9"/>
+    <workbookView xWindow="1320" yWindow="555" windowWidth="11820" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="2" r:id="rId1"/>
@@ -1946,6 +1946,20 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1975,20 +1989,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2351,65 +2351,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2466,14 +2466,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
         <v>263</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="38"/>
+      <c r="V4" s="44"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -3675,7 +3675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3742,65 +3742,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3857,14 +3857,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="38"/>
+      <c r="V4" s="44"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5010,65 +5010,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5125,14 +5125,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="38"/>
+      <c r="V4" s="44"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -6114,65 +6114,65 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -6229,14 +6229,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="38"/>
+      <c r="V4" s="44"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -7305,7 +7305,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7378,7 +7378,7 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
-      <c r="O2" s="40"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -7397,7 +7397,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="30" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="30" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7460,7 +7460,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -7479,7 +7479,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="30" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="30" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="30" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7563,7 +7563,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="30" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7577,19 +7577,19 @@
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -7615,7 +7615,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="30" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="30" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="30" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="30" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7699,10 +7699,10 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="R17" s="39"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -7721,7 +7721,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="O18" s="40" t="s">
+      <c r="O18" s="30" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="O19" s="40">
+      <c r="O19" s="30">
         <v>66</v>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -7782,7 +7782,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
-      <c r="O21" s="40"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -7801,7 +7801,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="30" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
-      <c r="O23" s="40" t="s">
+      <c r="O23" s="30" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="30" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="O25" s="40" t="s">
+      <c r="O25" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
-      <c r="O26" s="40">
+      <c r="O26" s="30">
         <v>66</v>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="O27" s="40">
+      <c r="O27" s="30">
         <v>100</v>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
-      <c r="O28" s="40">
+      <c r="O28" s="30">
         <v>62</v>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
-      <c r="O29" s="40">
+      <c r="O29" s="30">
         <v>54</v>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
-      <c r="O30" s="40"/>
+      <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
@@ -7988,7 +7988,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="O31" s="40">
+      <c r="O31" s="30">
         <v>100</v>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-      <c r="O32" s="40">
+      <c r="O32" s="30">
         <v>100</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       <c r="C33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="30">
         <v>100</v>
       </c>
     </row>
@@ -8041,11 +8041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8111,18 +8111,18 @@
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
-      <c r="O2" s="40">
+      <c r="O2" s="30">
         <v>22</v>
       </c>
     </row>
@@ -8136,18 +8136,18 @@
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
-      <c r="O3" s="40">
+      <c r="O3" s="30">
         <v>42</v>
       </c>
     </row>
@@ -8161,18 +8161,18 @@
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
-      <c r="O4" s="40">
+      <c r="O4" s="30">
         <v>44</v>
       </c>
     </row>
@@ -8186,18 +8186,18 @@
       <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
-      <c r="O5" s="40">
+      <c r="O5" s="30">
         <v>56</v>
       </c>
     </row>
@@ -8211,18 +8211,18 @@
       <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="40">
+      <c r="O6" s="30">
         <v>62</v>
       </c>
     </row>
@@ -8236,18 +8236,18 @@
       <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
-      <c r="O7" s="40">
+      <c r="O7" s="30">
         <v>70</v>
       </c>
     </row>
@@ -8261,18 +8261,18 @@
       <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
-      <c r="O8" s="40">
+      <c r="O8" s="30">
         <v>73</v>
       </c>
     </row>
@@ -8286,18 +8286,18 @@
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="40">
+      <c r="O9" s="30">
         <v>84</v>
       </c>
     </row>
@@ -8311,18 +8311,18 @@
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
-      <c r="O10" s="40">
+      <c r="O10" s="30">
         <v>86</v>
       </c>
     </row>
@@ -8336,19 +8336,19 @@
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
-      <c r="O11" s="40">
-        <v>90</v>
+      <c r="O11" s="30">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -8361,18 +8361,18 @@
       <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="40">
+      <c r="O12" s="30">
         <v>94</v>
       </c>
     </row>
@@ -8386,18 +8386,18 @@
       <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
-      <c r="O13" s="40">
+      <c r="O13" s="30">
         <v>94</v>
       </c>
     </row>
@@ -8411,18 +8411,18 @@
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
-      <c r="O14" s="40">
+      <c r="O14" s="30">
         <v>100</v>
       </c>
     </row>
@@ -8436,18 +8436,18 @@
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
-      <c r="O15" s="40">
+      <c r="O15" s="30">
         <f t="shared" ref="O15:O17" si="0">SUM(D15:M15)</f>
         <v>0</v>
       </c>
@@ -8462,38 +8462,38 @@
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="30">
         <v>2</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="30">
         <v>12</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="30">
         <v>12</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="30">
         <v>12</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="30">
         <v>2</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="30">
         <v>2</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="30">
         <v>2</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="32">
         <v>12</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="32">
         <v>12</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="32">
         <v>4</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="40">
+      <c r="N16" s="32"/>
+      <c r="O16" s="30">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -8508,42 +8508,42 @@
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="30">
         <v>6</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="30">
         <v>12</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="30">
         <v>12</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="30">
         <v>8</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="30">
         <v>2</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="30">
         <v>6</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="30">
         <v>4</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="32">
         <v>12</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="32">
         <v>10</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="32">
         <v>4</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="40">
+      <c r="N17" s="32"/>
+      <c r="O17" s="30">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="R17" s="39"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -8555,32 +8555,32 @@
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="30">
         <v>6</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="30">
         <v>12</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="30">
         <v>12</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="30">
         <v>12</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="30">
         <v>2</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="30">
         <v>4</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="30">
         <v>8</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
-      <c r="O18" s="40">
+      <c r="O18" s="30">
         <f>SUM(D18:M18)</f>
         <v>56</v>
       </c>
@@ -8595,18 +8595,18 @@
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
-      <c r="O19" s="40">
+      <c r="O19" s="30">
         <f t="shared" ref="O19:O33" si="1">SUM(D19:M19)</f>
         <v>0</v>
       </c>
@@ -8621,38 +8621,38 @@
       <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="30">
         <v>12</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="30">
         <v>12</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="30">
         <v>8</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="30">
         <v>2</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="30">
         <v>10</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="30">
         <v>12</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="30">
         <v>12</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="32">
         <v>12</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="32">
         <v>12</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="32">
         <v>4</v>
       </c>
       <c r="N20" s="27"/>
-      <c r="O20" s="40">
+      <c r="O20" s="30">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -8667,34 +8667,34 @@
       <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="30">
         <v>2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="30">
         <v>12</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="30">
         <v>12</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="30">
         <v>2</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="30">
         <v>2</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="30">
         <v>12</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="30">
         <v>12</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="32">
         <v>12</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
-      <c r="O21" s="40">
+      <c r="O21" s="30">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -8709,32 +8709,32 @@
       <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="30">
         <v>2</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="30">
         <v>12</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="30">
         <v>6</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="30">
         <v>2</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="30">
         <v>2</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="30">
         <v>6</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="42">
+      <c r="J22" s="30"/>
+      <c r="K22" s="32">
         <v>8</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
-      <c r="O22" s="40">
+      <c r="O22" s="30">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -8749,38 +8749,38 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="30">
         <v>12</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="30">
         <v>12</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="30">
         <v>12</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="30">
         <v>12</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="30">
         <v>10</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="30">
         <v>8</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="30">
         <v>4</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="32">
         <v>10</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="32">
         <v>12</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="32">
         <v>4</v>
       </c>
       <c r="N23" s="27"/>
-      <c r="O23" s="40">
+      <c r="O23" s="30">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -8795,32 +8795,32 @@
       <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="30">
         <v>12</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="30">
         <v>12</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="30">
         <v>12</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="30">
         <v>6</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="30">
         <v>6</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="30">
         <v>12</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="30">
         <v>6</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
-      <c r="O24" s="40">
+      <c r="O24" s="30">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -8835,18 +8835,18 @@
       <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
-      <c r="O25" s="40">
+      <c r="O25" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8861,18 +8861,18 @@
       <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
-      <c r="O26" s="40">
+      <c r="O26" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8887,32 +8887,32 @@
       <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30">
         <v>12</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="30">
         <v>12</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="30">
         <v>6</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="30">
         <v>6</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="30">
         <v>8</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="30">
         <v>4</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="32">
         <v>12</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
-      <c r="O27" s="40">
+      <c r="O27" s="30">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -8927,34 +8927,34 @@
       <c r="C28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="30">
         <v>2</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="30">
         <v>12</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="30">
         <v>12</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="30">
         <v>6</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="30">
         <v>4</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="30">
         <v>2</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="30">
         <v>12</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="32">
         <v>10</v>
       </c>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
-      <c r="O28" s="40">
+      <c r="O28" s="30">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -8969,34 +8969,34 @@
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="33">
         <v>2</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="33">
         <v>12</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="33">
         <v>12</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="33">
         <v>0</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="33">
         <v>4</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="33">
         <v>4</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44">
+      <c r="J29" s="33"/>
+      <c r="K29" s="34">
         <v>10</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="34">
         <v>12</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="40">
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="30">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
@@ -9011,32 +9011,32 @@
       <c r="C30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="30">
         <v>2</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="30">
         <v>12</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="30">
         <v>12</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="30">
         <v>2</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="30">
         <v>4</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="30">
         <v>4</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="27"/>
-      <c r="L30" s="42">
+      <c r="L30" s="32">
         <v>12</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
-      <c r="O30" s="40">
+      <c r="O30" s="30">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -9051,18 +9051,18 @@
       <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
-      <c r="O31" s="40">
+      <c r="O31" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9077,34 +9077,34 @@
       <c r="C32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="30">
         <v>2</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="30">
         <v>12</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="30">
         <v>12</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="30">
         <v>4</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="30">
         <v>2</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="30">
         <v>2</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="30">
         <v>12</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="32">
         <v>2</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
-      <c r="O32" s="40">
+      <c r="O32" s="30">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -9119,18 +9119,18 @@
       <c r="C33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
-      <c r="O33" s="40">
+      <c r="O33" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
-      <c r="N2" s="40"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -9239,7 +9239,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="30" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9260,7 +9260,7 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="30" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
-      <c r="N6" s="40"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -9321,7 +9321,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="30" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="30" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="30" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="30" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="N12" s="40"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -9445,7 +9445,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="30" t="s">
         <v>275</v>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="30" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="30" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="30" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9529,10 +9529,10 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="N17" s="40" t="s">
+      <c r="N17" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -9551,7 +9551,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="30" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="N19" s="40">
+      <c r="N19" s="30">
         <v>66</v>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="N20" s="40"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -9612,7 +9612,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
-      <c r="N21" s="40"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -9631,7 +9631,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="30" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="30" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="30" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9694,7 +9694,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
-      <c r="N26" s="40">
+      <c r="N26" s="30">
         <v>66</v>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="N27" s="40">
+      <c r="N27" s="30">
         <v>100</v>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
-      <c r="N28" s="40">
+      <c r="N28" s="30">
         <v>62</v>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
-      <c r="N29" s="40">
+      <c r="N29" s="30">
         <v>54</v>
       </c>
     </row>
@@ -9799,7 +9799,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
-      <c r="N30" s="40"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
@@ -9818,7 +9818,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="N31" s="40">
+      <c r="N31" s="30">
         <v>100</v>
       </c>
     </row>
@@ -9839,7 +9839,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-      <c r="N32" s="40">
+      <c r="N32" s="30">
         <v>100</v>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       <c r="C33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="40">
+      <c r="N33" s="30">
         <v>100</v>
       </c>
     </row>

--- a/porformance/zeagle.xlsx
+++ b/porformance/zeagle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="555" windowWidth="11820" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="1320" yWindow="555" windowWidth="11820" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="308">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -1121,11 +1121,18 @@
     <t>postpone</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1876,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1958,6 +1965,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2351,65 +2369,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
     </row>
     <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="45"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2466,14 +2484,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>263</v>
       </c>
@@ -2528,7 +2546,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -3742,65 +3760,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
     </row>
     <row r="2" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="45"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3857,14 +3875,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3937,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5010,65 +5028,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="45"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5125,14 +5143,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5205,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -6114,65 +6132,65 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="45"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -6229,14 +6247,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6291,7 +6309,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -8041,11 +8059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9147,10 +9165,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9159,7 +9177,7 @@
     <col min="4" max="10" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
@@ -9199,11 +9217,17 @@
       <c r="M1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9213,16 +9237,24 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="N2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="35">
+        <f t="shared" ref="P2:P7" si="0">SUM(D2:M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9232,18 +9264,44 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="N3" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D3" s="35">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35">
+        <v>4</v>
+      </c>
+      <c r="F3" s="35">
+        <v>10</v>
+      </c>
+      <c r="G3" s="35">
+        <v>4</v>
+      </c>
+      <c r="H3" s="35">
+        <v>10</v>
+      </c>
+      <c r="I3" s="35">
+        <v>6</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36">
+        <v>12</v>
+      </c>
+      <c r="M3" s="36">
+        <v>12</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="35">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9253,18 +9311,44 @@
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="N4" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D4" s="35">
+        <v>4</v>
+      </c>
+      <c r="E4" s="35">
+        <v>4</v>
+      </c>
+      <c r="F4" s="35">
+        <v>11</v>
+      </c>
+      <c r="G4" s="35">
+        <v>12</v>
+      </c>
+      <c r="H4" s="35">
+        <v>10</v>
+      </c>
+      <c r="I4" s="35">
+        <v>4</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <v>12</v>
+      </c>
+      <c r="M4" s="36">
+        <v>12</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="35">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9274,18 +9358,24 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="N5" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9295,16 +9385,40 @@
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D6" s="35">
+        <v>4</v>
+      </c>
+      <c r="E6" s="35">
+        <v>4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>10</v>
+      </c>
+      <c r="G6" s="35">
+        <v>10</v>
+      </c>
+      <c r="H6" s="35">
+        <v>12</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36">
+        <v>1</v>
+      </c>
+      <c r="L6" s="36">
+        <v>12</v>
+      </c>
+      <c r="M6" s="36">
+        <v>12</v>
+      </c>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="35">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9314,18 +9428,40 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="N7" s="30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35">
+        <v>4</v>
+      </c>
+      <c r="F7" s="35">
+        <v>12</v>
+      </c>
+      <c r="G7" s="35">
+        <v>8</v>
+      </c>
+      <c r="H7" s="35">
+        <v>10</v>
+      </c>
+      <c r="I7" s="35">
+        <v>6</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <v>12</v>
+      </c>
+      <c r="M7" s="36">
+        <v>12</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="35">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9335,18 +9471,44 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="N8" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D8" s="35">
+        <v>4</v>
+      </c>
+      <c r="E8" s="35">
+        <v>4</v>
+      </c>
+      <c r="F8" s="35">
+        <v>4</v>
+      </c>
+      <c r="G8" s="35">
+        <v>10</v>
+      </c>
+      <c r="H8" s="35">
+        <v>8</v>
+      </c>
+      <c r="I8" s="35">
+        <v>12</v>
+      </c>
+      <c r="J8" s="35">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
+        <v>8</v>
+      </c>
+      <c r="M8" s="36">
+        <v>12</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="35">
+        <f>SUM(D8:M8)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9356,18 +9518,44 @@
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="N9" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D9" s="35">
+        <v>4</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>4</v>
+      </c>
+      <c r="G9" s="35">
+        <v>12</v>
+      </c>
+      <c r="H9" s="35">
+        <v>4</v>
+      </c>
+      <c r="I9" s="35">
+        <v>12</v>
+      </c>
+      <c r="J9" s="35">
+        <v>12</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>12</v>
+      </c>
+      <c r="M9" s="36">
+        <v>12</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="35">
+        <f t="shared" ref="P9:P33" si="1">SUM(D9:M9)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9377,18 +9565,24 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="N10" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9398,18 +9592,24 @@
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="N11" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9419,16 +9619,24 @@
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9438,18 +9646,24 @@
       <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="N13" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9459,18 +9673,24 @@
       <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="N14" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9480,18 +9700,40 @@
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="N15" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D15" s="35">
+        <v>4</v>
+      </c>
+      <c r="E15" s="35">
+        <v>4</v>
+      </c>
+      <c r="F15" s="35">
+        <v>12</v>
+      </c>
+      <c r="G15" s="35">
+        <v>12</v>
+      </c>
+      <c r="H15" s="35">
+        <v>12</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35">
+        <v>12</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36">
+        <v>12</v>
+      </c>
+      <c r="M15" s="36">
+        <v>12</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="35">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9501,18 +9743,24 @@
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="N16" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9522,19 +9770,43 @@
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="N17" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>4</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>10</v>
+      </c>
+      <c r="H17" s="35">
+        <v>10</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
+        <v>12</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36">
+        <v>12</v>
+      </c>
+      <c r="M17" s="36">
+        <v>12</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="S17" s="29"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9544,18 +9816,24 @@
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="N18" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9565,18 +9843,24 @@
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="N19" s="30">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9586,16 +9870,24 @@
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="N20" s="30"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9605,16 +9897,24 @@
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="N21" s="30"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9624,18 +9924,44 @@
       <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="N22" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D22" s="35">
+        <v>4</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4</v>
+      </c>
+      <c r="F22" s="35">
+        <v>10</v>
+      </c>
+      <c r="G22" s="35">
+        <v>4</v>
+      </c>
+      <c r="H22" s="35">
+        <v>10</v>
+      </c>
+      <c r="I22" s="35">
+        <v>4</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0</v>
+      </c>
+      <c r="L22" s="36">
+        <v>12</v>
+      </c>
+      <c r="M22" s="36">
+        <v>12</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="35">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9645,18 +9971,24 @@
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="N23" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9666,18 +9998,42 @@
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="N24" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D24" s="35">
+        <v>4</v>
+      </c>
+      <c r="E24" s="35">
+        <v>4</v>
+      </c>
+      <c r="F24" s="35">
+        <v>10</v>
+      </c>
+      <c r="G24" s="35">
+        <v>12</v>
+      </c>
+      <c r="H24" s="35">
+        <v>12</v>
+      </c>
+      <c r="I24" s="35">
+        <v>12</v>
+      </c>
+      <c r="J24" s="35">
+        <v>0</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36">
+        <v>12</v>
+      </c>
+      <c r="M24" s="36">
+        <v>12</v>
+      </c>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="35">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9687,18 +10043,42 @@
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="N25" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>4</v>
+      </c>
+      <c r="G25" s="35">
+        <v>8</v>
+      </c>
+      <c r="H25" s="35">
+        <v>10</v>
+      </c>
+      <c r="I25" s="35">
+        <v>12</v>
+      </c>
+      <c r="J25" s="35">
+        <v>12</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36">
+        <v>12</v>
+      </c>
+      <c r="M25" s="36">
+        <v>12</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="35">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9708,18 +10088,40 @@
       <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="N26" s="30">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D26" s="35">
+        <v>4</v>
+      </c>
+      <c r="E26" s="35">
+        <v>4</v>
+      </c>
+      <c r="F26" s="35">
+        <v>4</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35">
+        <v>12</v>
+      </c>
+      <c r="I26" s="35">
+        <v>6</v>
+      </c>
+      <c r="J26" s="35">
+        <v>12</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36">
+        <v>12</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="35">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9729,18 +10131,42 @@
       <c r="C27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="N27" s="30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D27" s="35">
+        <v>4</v>
+      </c>
+      <c r="E27" s="35">
+        <v>4</v>
+      </c>
+      <c r="F27" s="35">
+        <v>10</v>
+      </c>
+      <c r="G27" s="35">
+        <v>8</v>
+      </c>
+      <c r="H27" s="35">
+        <v>10</v>
+      </c>
+      <c r="I27" s="35">
+        <v>6</v>
+      </c>
+      <c r="J27" s="35">
+        <v>6</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36">
+        <v>12</v>
+      </c>
+      <c r="M27" s="36">
+        <v>12</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="35">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9750,18 +10176,40 @@
       <c r="C28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="N28" s="30">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D28" s="35">
+        <v>4</v>
+      </c>
+      <c r="E28" s="35">
+        <v>4</v>
+      </c>
+      <c r="F28" s="35">
+        <v>10</v>
+      </c>
+      <c r="G28" s="35">
+        <v>4</v>
+      </c>
+      <c r="H28" s="35">
+        <v>12</v>
+      </c>
+      <c r="I28" s="35">
+        <v>6</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36">
+        <v>12</v>
+      </c>
+      <c r="M28" s="36">
+        <v>12</v>
+      </c>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="35">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9771,18 +10219,38 @@
       <c r="C29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="N29" s="30">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D29" s="35">
+        <v>4</v>
+      </c>
+      <c r="E29" s="35">
+        <v>4</v>
+      </c>
+      <c r="F29" s="35">
+        <v>10</v>
+      </c>
+      <c r="G29" s="35">
+        <v>6</v>
+      </c>
+      <c r="H29" s="35">
+        <v>10</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36">
+        <v>12</v>
+      </c>
+      <c r="M29" s="36">
+        <v>12</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="35">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9792,16 +10260,24 @@
       <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="N30" s="30"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9811,18 +10287,24 @@
       <c r="C31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="N31" s="30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -9832,18 +10314,40 @@
       <c r="C32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="N32" s="30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D32" s="35">
+        <v>0</v>
+      </c>
+      <c r="E32" s="35">
+        <v>4</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>10</v>
+      </c>
+      <c r="H32" s="35">
+        <v>12</v>
+      </c>
+      <c r="I32" s="35">
+        <v>6</v>
+      </c>
+      <c r="J32" s="35">
+        <v>12</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36">
+        <v>12</v>
+      </c>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="35">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -9853,17 +10357,43 @@
       <c r="C33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="30">
-        <v>100</v>
+      <c r="D33" s="37">
+        <v>4</v>
+      </c>
+      <c r="E33" s="37">
+        <v>4</v>
+      </c>
+      <c r="F33" s="37">
+        <v>10</v>
+      </c>
+      <c r="G33" s="37">
+        <v>6</v>
+      </c>
+      <c r="H33" s="37">
+        <v>10</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36">
+        <v>8</v>
+      </c>
+      <c r="M33" s="36">
+        <v>12</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="35">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="N3:N33" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/porformance/zeagle.xlsx
+++ b/porformance/zeagle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="555" windowWidth="11820" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="1320" yWindow="555" windowWidth="11820" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="315">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -1123,6 +1123,34 @@
   </si>
   <si>
     <t>copy</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dim Analysis</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1883,7 +1911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1978,6 +2006,9 @@
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2006,6 +2037,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2353,14 +2387,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E25" sqref="E25"/>
       <selection pane="topRight" activeCell="E25" sqref="E25"/>
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2369,65 +2403,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2484,14 +2518,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>263</v>
       </c>
@@ -2514,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>7</v>
@@ -2546,56 +2580,46 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="50"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="26">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="51"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="26">
-        <v>90</v>
-      </c>
-      <c r="E6" s="26">
-        <v>90</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="26">
         <v>100</v>
       </c>
@@ -2618,16 +2642,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7" s="26">
         <v>90</v>
@@ -2639,7 +2663,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2654,19 +2680,19 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="26">
         <v>100</v>
       </c>
       <c r="E8" s="26">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="26">
         <v>100</v>
@@ -2675,7 +2701,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2690,18 +2718,20 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="26">
-        <v>95</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="26">
+        <v>89</v>
+      </c>
       <c r="F9" s="26">
         <v>100</v>
       </c>
@@ -2709,7 +2739,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2724,20 +2756,18 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="26">
-        <v>90</v>
-      </c>
-      <c r="E10" s="26">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="26">
         <v>100</v>
       </c>
@@ -2760,19 +2790,19 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="26">
         <v>90</v>
       </c>
       <c r="E11" s="26">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F11" s="26">
         <v>100</v>
@@ -2796,19 +2826,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="26">
         <v>90</v>
       </c>
       <c r="E12" s="26">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F12" s="26">
         <v>100</v>
@@ -2817,7 +2847,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2832,19 +2864,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E13" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F13" s="26">
         <v>100</v>
@@ -2868,21 +2900,23 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E14" s="26">
-        <v>90</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="26">
+        <v>100</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2902,26 +2936,28 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="26">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="26">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E15" s="26">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2936,28 +2972,28 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="26">
         <v>100</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="4"/>
+      <c r="F16" s="26">
         <v>100</v>
-      </c>
-      <c r="F16" s="26">
-        <v>90</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2972,28 +3008,30 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E17" s="26">
         <v>100</v>
       </c>
       <c r="F17" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -3008,16 +3046,16 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E18" s="26">
         <v>100</v>
@@ -3029,7 +3067,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3044,18 +3084,20 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="26">
         <v>100</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="26">
+        <v>100</v>
+      </c>
       <c r="F19" s="26">
         <v>100</v>
       </c>
@@ -3063,7 +3105,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -3078,20 +3122,18 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="26">
         <v>100</v>
       </c>
-      <c r="E20" s="26">
-        <v>95</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="26">
         <v>100</v>
       </c>
@@ -3099,7 +3141,9 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -3114,16 +3158,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E21" s="26">
         <v>95</v>
@@ -3135,7 +3179,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -3150,19 +3196,19 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E22" s="26">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F22" s="26">
         <v>100</v>
@@ -3171,7 +3217,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -3186,22 +3234,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="26">
+        <v>100</v>
+      </c>
+      <c r="E23" s="26">
+        <v>90</v>
+      </c>
+      <c r="F23" s="26">
+        <v>100</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -3216,20 +3272,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="26">
-        <v>90</v>
-      </c>
-      <c r="E24" s="26">
-        <v>90</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3250,28 +3302,28 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E25" s="26">
         <v>90</v>
       </c>
-      <c r="F25" s="26">
-        <v>100</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -3286,16 +3338,16 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E26" s="26">
         <v>90</v>
@@ -3307,7 +3359,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3322,19 +3376,19 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="26">
         <v>90</v>
       </c>
       <c r="E27" s="26">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F27" s="26">
         <v>100</v>
@@ -3343,7 +3397,9 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3358,19 +3414,19 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E28" s="26">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F28" s="26">
         <v>100</v>
@@ -3379,7 +3435,9 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3394,19 +3452,19 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="26">
         <v>100</v>
       </c>
       <c r="E29" s="26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F29" s="26">
         <v>100</v>
@@ -3415,7 +3473,9 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3430,13 +3490,13 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="26">
         <v>100</v>
@@ -3451,7 +3511,9 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3466,19 +3528,19 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="26">
         <v>100</v>
       </c>
       <c r="E31" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F31" s="26">
         <v>100</v>
@@ -3487,7 +3549,9 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3502,26 +3566,30 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="26">
         <v>100</v>
       </c>
       <c r="E32" s="26">
-        <v>90</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F32" s="26">
+        <v>100</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3536,26 +3604,28 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D33" s="26">
+        <v>100</v>
+      </c>
       <c r="E33" s="26">
         <v>90</v>
       </c>
-      <c r="F33" s="26">
-        <v>100</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3570,19 +3640,17 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="26">
-        <v>95</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="26">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F34" s="26">
         <v>100</v>
@@ -3606,16 +3674,16 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="26">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E35" s="26">
         <v>100</v>
@@ -3627,7 +3695,9 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3642,13 +3712,13 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="26">
         <v>100</v>
@@ -3656,12 +3726,16 @@
       <c r="E36" s="26">
         <v>100</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="26">
+        <v>100</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3673,6 +3747,42 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="26">
+        <v>100</v>
+      </c>
+      <c r="E37" s="26">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3760,65 +3870,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3875,14 +3985,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3937,7 +4047,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="50"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5028,65 +5138,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5143,14 +5253,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5205,7 +5315,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="50"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -6132,65 +6242,65 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -6247,14 +6357,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6309,7 +6419,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="50"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -9167,7 +9277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
